--- a/Análise de requisitos desafio 2.xlsx
+++ b/Análise de requisitos desafio 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Documentos\Fábrica de Software\PO workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Documentos\Fábrica de Software\PO workshop\Apresentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBBDE90-B6AB-4E2B-9CD3-1ADA0B4FC15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B817D5A-A5B7-4803-967B-3788AD74A3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="122">
   <si>
     <t>PRODUCT BACKLOG - Histórias de Usuários</t>
   </si>
@@ -110,18 +110,12 @@
     <t>1#</t>
   </si>
   <si>
-    <t>ÉPICO</t>
-  </si>
-  <si>
     <t>Datas Previstas</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Descrição das histórias dos usuários</t>
-  </si>
-  <si>
     <t>Início</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>Tela exibindo a logomarca</t>
   </si>
   <si>
-    <t>Tocar na tela direciona para tela de identificação</t>
-  </si>
-  <si>
     <t>Identificação</t>
   </si>
   <si>
@@ -200,21 +191,9 @@
     <t>Tela Avaliação Funcionários</t>
   </si>
   <si>
-    <t>Mostra logo da clínica</t>
-  </si>
-  <si>
-    <t>Mostrar logo da clínica</t>
-  </si>
-  <si>
     <t>O sistema deve conversar com o banco de dados da clínica</t>
   </si>
   <si>
-    <t>Tela com o formulário de avaliação Pacientes</t>
-  </si>
-  <si>
-    <t>Tela com o formulário de avaliação Funcionários</t>
-  </si>
-  <si>
     <t>O sistema deve guardar a avaliação no banco de dados</t>
   </si>
   <si>
@@ -227,45 +206,12 @@
     <t>O sistema a partir do CPF deve identificar funcionários ou pacientes</t>
   </si>
   <si>
-    <t>O sistema deve direcionar o Funcionário para a tela de Avaliação Funcionário</t>
-  </si>
-  <si>
-    <t>Deve notificar Diretor caso haja 3 notas de um único paciente e 5 notas de diferentes pacientes &lt; 3</t>
-  </si>
-  <si>
-    <t>Deve registrar no banco de dados todas as avaliações</t>
-  </si>
-  <si>
     <t>Diretor</t>
   </si>
   <si>
     <t>RH</t>
   </si>
   <si>
-    <t>Receber as avaliações do sistema</t>
-  </si>
-  <si>
-    <t>Validar as avaliações menores que 3 estrelas</t>
-  </si>
-  <si>
-    <t>Enviar relatório sobre o funcionário ao Diretor em até 30 dias</t>
-  </si>
-  <si>
-    <t>O sistema deve enviar relatórios ao RH sempre que houver uma avaliação menor que 3</t>
-  </si>
-  <si>
-    <t>caso haja 3 notas de um único paciente e 5 notas de diferentes pacientes menor que 3</t>
-  </si>
-  <si>
-    <t>Recebe as notificações do sistema</t>
-  </si>
-  <si>
-    <t>Recebe os relatórios do RH</t>
-  </si>
-  <si>
-    <t>Toma decisões</t>
-  </si>
-  <si>
     <t>6#</t>
   </si>
   <si>
@@ -293,60 +239,18 @@
     <t>Formulário Paciente</t>
   </si>
   <si>
-    <t>Logo, após, ser identificado pelo sistema o usuário sera redirecionado a tela de seu segmento, neste caso, Paciente. O paciente responderá a  um formulário.</t>
-  </si>
-  <si>
-    <t>Identificados, caso o o usuário seja um paciente o sistema solicitará a ele a data de nascimento para confirmar sua identidade. Caso seja funcionário o sistema solicitará ao mesmo uma senha pré-cradastada no sistema para continuar o precesso.</t>
-  </si>
-  <si>
-    <t>Após isso, o sistema abrir a tela de identificação e solicitará ao usuário seu CPF, e a partir disso identificara se o mesmo é paciente ou funcionário, conferindo no bando de dados da clínica.</t>
-  </si>
-  <si>
-    <t>Totem mostrará a logamarca da Clínica enquanto não estiver sendo utilizado, ao receber um toque ele inicia o sistema.</t>
-  </si>
-  <si>
     <t>Tela Avaliação Funcionário</t>
   </si>
   <si>
-    <t>Após identificado como funcionário será encaminhado para a tela de avaliação destinado aos funcionários, e responderá a um formulário</t>
-  </si>
-  <si>
-    <t>O formulário será composto por 3 critérios quanto ao atendimento dos psiquiatras e/ou psicologos, 4 critérios quanto ao atendimento do secretário(a) e 3 critérios da limpeza. Podendo ser avaliados cada critério de 1 a 5 estrelas, com comentário adicional(opcional)</t>
-  </si>
-  <si>
     <t>Formulário Funcionário</t>
   </si>
   <si>
-    <t>O formulário será composto por 4 critérios quanto ao atendimento do secretário(a), e 3 critérios da limpeza. Podendo ser avaliados cada critério de 1 a 5 estrelas, com comentário adicional(opcional)</t>
-  </si>
-  <si>
-    <t>O sistema deve enviar ao RH um relatório sempre que houver uma nota menor que 3, e deve notificar ao RH  e ao Diretor sempre que um funcionário receber em um mesmo critério 3 avaliações de um mesmo cliente e/ou 5 avaliações de clientes distintos menor que 3 estrelas. Além disso, deve guardar no banco de dados da clínica todas as avaliações feitas, para uso posterior.</t>
-  </si>
-  <si>
-    <t>O RH deve receber as avaliações do sistema,deve validar as avaliações menores que 3 estrelas. Além disso, deve todas as vezes que for notificado, entregar um relatório ao Diretor contendo todo o histórico de avaliações daquele medico, afim de que, ele tome a melhor decisão para clínica, esse relátorio deve ser enviado em até 30 dias</t>
-  </si>
-  <si>
-    <t>O diretor deve receber as notificações, receber os relátorios do RH e tomar as decisões a partir disso</t>
-  </si>
-  <si>
     <t>Relátorio</t>
   </si>
   <si>
-    <t>O relátorio deve conter um valor da média das avaliações do funcionário no total, e em cada um dos critérios. Além disso, deve ser um arquivo visual, que possar ser impresso ou tenha a opção de fazer download</t>
-  </si>
-  <si>
-    <t>Desejável</t>
-  </si>
-  <si>
     <t>Relatório</t>
   </si>
   <si>
-    <t>Relatório deve conter a média das avaliações</t>
-  </si>
-  <si>
-    <t>Arquivo visual disponível para donwload e impressão</t>
-  </si>
-  <si>
     <t>Usabilidade</t>
   </si>
   <si>
@@ -411,6 +315,132 @@
   </si>
   <si>
     <t>Interoperabilidade</t>
+  </si>
+  <si>
+    <t>como diretor devo ser notificado, receber os relátorios do RH e tomar as decisões a partir disso.</t>
+  </si>
+  <si>
+    <t>O relátorio deve conter um valor da média das avaliações do funcionário no total, e em cada um dos critérios. Além disso, deve ser um arquivo visual, que possua a opção de ser impresso e possua opção de  download</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Descrição dos Requisitos funcionais</t>
+  </si>
+  <si>
+    <t>O sistema deve direcionar o usuário a área de identificação ao usuário tocar a tela</t>
+  </si>
+  <si>
+    <t>O sistema deve mostrar a logo da Clínica</t>
+  </si>
+  <si>
+    <t>O sistema deve carregar a tela com o formulário de avaliação paciente</t>
+  </si>
+  <si>
+    <t>O sistema deve carregar a tela com o formulário de avaliação funcionário</t>
+  </si>
+  <si>
+    <t>O sistema deve guardar todas as avaliações no banco de dados</t>
+  </si>
+  <si>
+    <t>Deve validar as avaliações menores que 3 estrelas</t>
+  </si>
+  <si>
+    <t>Deve receber as avaliações do sistema</t>
+  </si>
+  <si>
+    <t>Deve receber os relatório do RH</t>
+  </si>
+  <si>
+    <t>Deve tomar as medidas cabivéis</t>
+  </si>
+  <si>
+    <t>O relatório deve conter a média das avaliações</t>
+  </si>
+  <si>
+    <t>O arquivo deve ser visual  e disponível para donwload e impressão</t>
+  </si>
+  <si>
+    <t>8#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2# </t>
+  </si>
+  <si>
+    <t>O sistema deve identificar se o funcionário é secretario(a) ou psiquiatra/psciologo</t>
+  </si>
+  <si>
+    <t>Caso seja secretario(a)</t>
+  </si>
+  <si>
+    <t>O sistema deve direcionar o secretario(a) para a tela de Avaliação secretario(a)</t>
+  </si>
+  <si>
+    <t>Caso seja psiquatra/psicologo</t>
+  </si>
+  <si>
+    <t>O sistema deve direcionar o secretario(a) para a tela de Avaliação funcionário</t>
+  </si>
+  <si>
+    <t>Tela Avaliação Secretário(a)</t>
+  </si>
+  <si>
+    <t>O sistema deve carregar a tela com o formulário de avaliação secretário(a)</t>
+  </si>
+  <si>
+    <t>Tela Avaliação secretário(a)</t>
+  </si>
+  <si>
+    <t>Formulário Secretário(a)</t>
+  </si>
+  <si>
+    <t>O sistema deve notificar RH sempre que houver uma avaliação menor que 3</t>
+  </si>
+  <si>
+    <t>O formulário será composto por 3 critérios(Pontualidade, Atendimento humanizado e Satisfação) quanto ao atendimento dos psiquiatras e/ou psicologos, 4 critérios(Pontualidade, Atendimento humanizado, Satisfação e agilidade) quanto ao atendimento do secretário(a) e 3 critérios(Qualidade da limpeza, Copa e Satisfação) da limpeza. Podendo ser avaliados cada critério de 1 a 5 estrelas, com comentário adicional(opcional)</t>
+  </si>
+  <si>
+    <t>O formulário será composto por 3 critérios(Qualidade da limpeza, Copa e Satisfação) da limpeza. Podendo ser avaliados cada critério de 1 a 5 estrelas, com comentário adicional(opcional)</t>
+  </si>
+  <si>
+    <t>O formulário será composto por 4 critérios(Pontualidade, Atendimento humanizado, Satisfação e agilidade)  do secretário(a), e 3 critérios(Qualidade da limpeza, Copa e Satisfação) da limpeza. Podendo ser avaliados cada critério de 1 a 5 estrelas, com comentário adicional(opcional)</t>
+  </si>
+  <si>
+    <t>O sistema deve enviar ao RH uma notificação sempre que houver uma nota menor que 3, e deve enviar uma notificação amarela ao RH  e ao Diretor sempre que um funcionário receber em um mesmo critério 3 avaliações de um mesmo cliente e/ou 5 avaliações de clientes distintos menor que 3 estrelas. Além disso, deve guardar no banco de dados da clínica todas as avaliações feitas, para uso posterior.</t>
+  </si>
+  <si>
+    <t>Como RH devo receber as avaliações do sistema,devo validar as avaliações menores que 3 estrelas. Além disso, devo quando receber uma notificação amarela, entregar um relatório ao Diretor contendo todo o histórico de avaliações do funcionário, afim de que, ele tome a melhor decisão para clínica, esse relátorio deve ser enviado em até 30 dias.</t>
+  </si>
+  <si>
+    <t>Caso receba notificação amarela enviar um relatório ao diretor sobre o funcionário em até 30 dias</t>
+  </si>
+  <si>
+    <t>9#</t>
+  </si>
+  <si>
+    <t>Back/Front</t>
+  </si>
+  <si>
+    <t>Como usuário quero digitar meu CPF,  e ser identificado pelo sistema como Paciente, Funcionário ou Secretário(a)</t>
+  </si>
+  <si>
+    <t>O sistema identifica o tipo de avaliador a partir do banco de dados da clínica, logo após pede ao usuário Paciente que coloque a data de nascimento para prosseguir e ao usuário funcionário/Secretário uma senha  pré-cadrastada</t>
+  </si>
+  <si>
+    <t>Como usuário quero ser redirecionado a tela de avaliação após a identificação e preencher o formulário</t>
+  </si>
+  <si>
+    <t>Deve enviar uma notificação amarela ao Diretor e ao RH caso haja 3 notas de um único paciente e 5 notas de diferentes pacientes menores que 3</t>
+  </si>
+  <si>
+    <t>Deve receber a notificação amarela do sistema</t>
+  </si>
+  <si>
+    <t>O sistema inicia assim que o usuário tocar na tela do totem</t>
   </si>
 </sst>
 </file>
@@ -571,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +635,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
@@ -942,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1035,71 +1083,102 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,38 +1202,94 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1162,30 +1297,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,87 +1322,57 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,10 +1598,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E28"/>
+    <sheetView topLeftCell="A4" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1516,36 +1614,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1569,50 +1667,50 @@
         <v>1</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
@@ -1620,260 +1718,346 @@
         <v>4</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="60">
         <v>5</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="80"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="80"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
+        <v>6</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="49"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-    </row>
-    <row r="13" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
-        <v>6</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="E14" s="66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60">
+        <v>7</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+    </row>
+    <row r="18" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
         <v>8</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="B18" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="83"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="86">
+        <v>9</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="86"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="86"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="86">
+        <v>10</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="46" t="s">
+      <c r="E23" s="87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="86"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="86"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="86"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="93">
+        <v>11</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="93"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="93">
+        <v>12</v>
+      </c>
+      <c r="B31" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D31" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+      <c r="E31" s="93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="93"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="93">
+        <v>13</v>
+      </c>
+      <c r="B33" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
-        <v>9</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
-        <v>10</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
-        <v>11</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="E33" s="93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="93"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="48">
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -1886,10 +2070,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1905,27 +2089,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1935,37 +2119,37 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="74"/>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="58"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="117" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="71"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="20"/>
     </row>
@@ -1976,17 +2160,17 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="82"/>
+      <c r="C5" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="98"/>
       <c r="E5" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1996,920 +2180,1180 @@
       <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="82"/>
+      <c r="C6" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="98"/>
       <c r="E6" s="23" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="89"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="119"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="64"/>
+      <c r="C10" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="77"/>
       <c r="E10" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="64"/>
+      <c r="C11" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="77"/>
       <c r="E11" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="64"/>
+      <c r="C12" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="77"/>
       <c r="E12" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="24">
         <v>4</v>
       </c>
-      <c r="C13" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="58"/>
+      <c r="C13" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="71"/>
       <c r="E13" s="25" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="22">
         <v>5</v>
       </c>
-      <c r="C14" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="80"/>
+      <c r="C14" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="108"/>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="22">
         <v>6</v>
       </c>
-      <c r="C15" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="80"/>
+      <c r="C15" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="108"/>
       <c r="E15" s="23" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B16" s="22">
         <v>7</v>
       </c>
-      <c r="C16" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="80"/>
+      <c r="C16" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="108"/>
       <c r="E16" s="23" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22">
+        <v>8</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="22">
+        <v>9</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="108"/>
+      <c r="E18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="22">
+        <v>10</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="22">
+        <v>11</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="108"/>
+      <c r="E20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="102"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="74"/>
+      <c r="H22" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="77"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="77"/>
+      <c r="E24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="77"/>
+      <c r="E25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="22">
+        <v>3</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="111"/>
+      <c r="E26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="102"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F28" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="74"/>
+      <c r="H28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="7" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="77"/>
+      <c r="C29" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="77"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="G29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="77"/>
+      <c r="E30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
-        <v>2</v>
-      </c>
-      <c r="C21" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="22">
+      <c r="C31" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="9">
         <v>3</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C32" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-    </row>
-    <row r="24" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2</v>
-      </c>
-      <c r="C27" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="9">
-        <v>3</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="27" t="s">
+      <c r="D32" s="77"/>
+      <c r="E32" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="22">
-        <v>1</v>
-      </c>
-      <c r="C32" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="23" t="s">
-        <v>66</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="B34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="74"/>
+      <c r="H34" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="77"/>
+      <c r="C35" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="77"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="77"/>
+      <c r="E36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="77"/>
+      <c r="E37" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="22">
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9">
         <v>3</v>
       </c>
-      <c r="C34" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="82"/>
-      <c r="H36" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="22">
-        <v>1</v>
-      </c>
-      <c r="C38" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="23"/>
+      <c r="C38" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="77"/>
+      <c r="E38" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="22">
+      <c r="H38" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="127"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="22">
+      <c r="B40" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="129"/>
+      <c r="H40" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="131"/>
+      <c r="C41" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="133"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="22">
+        <v>1</v>
+      </c>
+      <c r="C42" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="135"/>
+      <c r="E42" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="22">
+        <v>2</v>
+      </c>
+      <c r="C43" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="108"/>
+      <c r="E43" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="22">
         <v>3</v>
       </c>
-      <c r="C40" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="22">
-        <v>4</v>
-      </c>
-      <c r="C41" s="77" t="s">
+      <c r="C44" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="98"/>
+      <c r="E44" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="98"/>
+      <c r="H46" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="98"/>
+      <c r="C47" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="98"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="22">
+        <v>1</v>
+      </c>
+      <c r="C48" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="98"/>
+      <c r="E48" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="22">
+        <v>2</v>
+      </c>
+      <c r="C49" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="111"/>
+      <c r="E49" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="22">
+        <v>3</v>
+      </c>
+      <c r="C50" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="111"/>
+      <c r="E50" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="99"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="98"/>
+      <c r="H52" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="98"/>
+      <c r="C53" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="98"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="22">
+        <v>1</v>
+      </c>
+      <c r="C54" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="98"/>
+      <c r="E54" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="22">
+        <v>2</v>
+      </c>
+      <c r="C55" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="96"/>
+      <c r="E55" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="22">
+        <v>3</v>
+      </c>
+      <c r="C56" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="98"/>
+      <c r="E56" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="123"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="123"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="E58" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="104"/>
+      <c r="H58" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="82"/>
-      <c r="H43" s="28" t="s">
+      <c r="B59" s="98"/>
+      <c r="C59" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="98"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="92" t="s">
+      <c r="G59" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="22">
+        <v>1</v>
+      </c>
+      <c r="C60" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="98"/>
+      <c r="E60" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="22">
         <v>2</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="22">
-        <v>1</v>
-      </c>
-      <c r="C45" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="82"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="22">
-        <v>2</v>
-      </c>
-      <c r="C46" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="96">
-        <v>3</v>
-      </c>
-      <c r="C47" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="98"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="105"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="104"/>
-      <c r="H49" s="102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="82"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="21"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="22">
-        <v>1</v>
-      </c>
-      <c r="C51" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="82"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="22">
-        <v>2</v>
-      </c>
-      <c r="C52" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="106"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
+      <c r="C61" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="96"/>
+      <c r="E61" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="102"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="53"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="123"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="123"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="123"/>
+      <c r="F67" s="123"/>
+      <c r="G67" s="123"/>
+      <c r="H67" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="A50:B50"/>
+  <mergeCells count="73">
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A57:H57"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2935,187 +3379,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="102"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-    </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="108" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="B4" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="136"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="136"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="136" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="B7" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="136"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="136"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="136"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="136"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="114" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="114" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="114" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="115" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="116" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="117" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="113"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="116" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="116" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="118" t="s">
-        <v>102</v>
+      <c r="B13" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="120" t="s">
-        <v>103</v>
+      <c r="A14" s="137"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="44" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="120" t="s">
-        <v>104</v>
+      <c r="A15" s="137"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="44" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="116" t="s">
-        <v>106</v>
+      <c r="A16" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="120" t="s">
-        <v>107</v>
+      <c r="A17" s="137"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="118" t="s">
-        <v>109</v>
+      <c r="A18" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="113"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="118" t="s">
-        <v>110</v>
+      <c r="A19" s="136"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="43" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B4:B6"/>
@@ -3124,6 +3562,12 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
